--- a/GunfireDungeon_Godot/excel/LiquidLayer.xlsx
+++ b/GunfireDungeon_Godot/excel/LiquidLayer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="27360" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -46,6 +46,12 @@
     <t>AnimSpeed</t>
   </si>
   <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>WriteOffSpeed</t>
+  </si>
+  <si>
     <t>表Id</t>
   </si>
   <si>
@@ -59,6 +65,13 @@
   </si>
   <si>
     <t>动画速度</t>
+  </si>
+  <si>
+    <t>开始消退时间,单位秒
+小于0则永远不会消退</t>
+  </si>
+  <si>
+    <t>消退速度, 也就是 Alpha 值每秒变化的速度</t>
   </si>
   <si>
     <t>string</t>
@@ -1010,24 +1023,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9" style="2"/>
+    <col min="5" max="6" width="18.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:5">
+    <row r="1" ht="22" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,56 +1056,80 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="74" customHeight="1" spans="1:5">
+    <row r="2" ht="74" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:5">
+    <row r="4" ht="30" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1"/>

--- a/GunfireDungeon_Godot/excel/LiquidLayer.xlsx
+++ b/GunfireDungeon_Godot/excel/LiquidLayer.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>res://resource/sprite/liquid/Water.png</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>毒液</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/liquid/Venom.png</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -1132,7 +1141,31 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1"/>
+    <row r="5" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
     <row r="6" ht="35" customHeight="1"/>
     <row r="7" ht="31" customHeight="1"/>
     <row r="8" ht="21" customHeight="1"/>
